--- a/Assets/Resources/Model/Monster/BossMonster/DialogueSheet 1.xlsx
+++ b/Assets/Resources/Model/Monster/BossMonster/DialogueSheet 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungyuJang\Desktop\GitHubDesktop\RPGGame\Assets\02Script\Manager\DialogueManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\Resources\Model\Monster\BossMonster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A05C9C-1129-4186-A767-D455474B0236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F5D35F-07FF-4610-9AB8-B7FE85A78A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
+    <workbookView xWindow="38340" yWindow="1530" windowWidth="28800" windowHeight="15435" xr2:uid="{CAD4DF56-E29E-41CF-98A8-9E3149639929}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,39 +93,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>너였구나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 말도 안 되는 세계에서 혼자 살아 있는 게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니면 죽은 채로 움직이는 건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기에서 태어나고 죽을 나로서는 알 수 없지만, 한 가지 분명한 게 있지.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그게 뭐지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>더는 듣고 싶지 않아.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이 무의미한 싸움을 끝으로-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세계는 없어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Exit</t>
+  </si>
+  <si>
+    <t>안녕, 나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재활용 될거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너는 여기서 몇번을 죽었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 여기서 몇번을 죽었을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너와 나는 결국 여기가 마지막이야. 그렇지만 걱정하지 않아도 돼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그만해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 이후의 너는…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,14 +624,14 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
